--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed4/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.77329999999999</v>
+        <v>-11.89109999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.72090000000001</v>
+        <v>12.8732</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.2671</v>
+        <v>12.1092</v>
       </c>
     </row>
     <row r="7">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.36789999999998</v>
+        <v>-20.07619999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.80589999999999</v>
+        <v>11.76239999999999</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.85830000000001</v>
+        <v>-13.9614</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.22899999999999</v>
+        <v>13.34629999999999</v>
       </c>
     </row>
     <row r="12">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-23.20780000000002</v>
+        <v>-23.07320000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.05740000000002</v>
+        <v>-22.03260000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.436600000000001</v>
+        <v>-7.303400000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>13.42690000000001</v>
+        <v>13.50520000000001</v>
       </c>
     </row>
     <row r="22">
